--- a/Ke_hoach_do_an.xlsx
+++ b/Ke_hoach_do_an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Son Phan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB7927F-6FCC-4F5E-BD46-730C50432029}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D476DF0-DDB4-4B5A-AA4E-83F6EA38411E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{34117C9A-1866-4CF7-8596-432888150663}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Kế hoạch phân công làm đồ án môn cấu trúc dữ liệu</t>
   </si>
@@ -139,24 +139,6 @@
   </si>
   <si>
     <t>22/10/2018</t>
-  </si>
-  <si>
-    <t>13/10/2018</t>
-  </si>
-  <si>
-    <t>20/10/2018</t>
-  </si>
-  <si>
-    <t>21/10/2018</t>
-  </si>
-  <si>
-    <t>23/10/2018</t>
-  </si>
-  <si>
-    <t>26/10/2018</t>
-  </si>
-  <si>
-    <t>25/10/2018</t>
   </si>
   <si>
     <t>28/10/2018</t>
@@ -333,6 +315,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,22 +340,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -385,6 +367,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514AE4A3-966D-463D-9621-F193EA7FA9DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="10637520" y="3817620"/>
+              <a:ext cx="1181100" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5E2B5-C013-4F07-A348-84BFF0506DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5E2B5-C013-4F07-A348-84BFF0506DB3}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,84 +755,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
@@ -791,11 +843,11 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -803,14 +855,14 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="3">
         <v>43110</v>
       </c>
@@ -835,10 +887,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="3">
         <v>43110</v>
       </c>
@@ -863,10 +915,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="4">
         <v>43110</v>
       </c>
@@ -891,10 +943,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="3">
         <v>43230</v>
       </c>
@@ -902,10 +954,10 @@
         <v>43291</v>
       </c>
       <c r="O8" s="3">
-        <v>43414</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>43261</v>
+      </c>
+      <c r="P8" s="3">
+        <v>43291</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -919,10 +971,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="3">
         <v>43230</v>
       </c>
@@ -930,10 +982,10 @@
         <v>43291</v>
       </c>
       <c r="O9" s="3">
-        <v>43414</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>38</v>
+        <v>43261</v>
+      </c>
+      <c r="P9" s="3">
+        <v>43291</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -947,10 +999,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="3">
         <v>43230</v>
       </c>
@@ -958,10 +1010,10 @@
         <v>43291</v>
       </c>
       <c r="O10" s="3">
-        <v>43414</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>38</v>
+        <v>43261</v>
+      </c>
+      <c r="P10" s="3">
+        <v>43291</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -975,10 +1027,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="3">
         <v>43230</v>
       </c>
@@ -986,10 +1038,10 @@
         <v>43291</v>
       </c>
       <c r="O11" s="3">
-        <v>43414</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>38</v>
+        <v>43261</v>
+      </c>
+      <c r="P11" s="3">
+        <v>43291</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1007,7 +1059,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1041,14 +1093,14 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="3">
         <v>43353</v>
       </c>
@@ -1056,10 +1108,10 @@
         <v>43414</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1073,10 +1125,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="3">
         <v>43353</v>
       </c>
@@ -1084,10 +1136,10 @@
         <v>43414</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1101,10 +1153,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="3">
         <v>43353</v>
       </c>
@@ -1112,10 +1164,10 @@
         <v>43414</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1129,10 +1181,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="3">
         <v>43444</v>
       </c>
@@ -1140,10 +1192,10 @@
         <v>31</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1157,21 +1209,19 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="3">
         <v>43444</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1185,10 +1235,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="3">
         <v>43444</v>
       </c>
@@ -1196,10 +1246,10 @@
         <v>31</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1211,10 +1261,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1253,22 +1303,18 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -1283,20 +1329,16 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -1309,10 +1351,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
@@ -1321,12 +1363,8 @@
       <c r="N24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
@@ -1339,8 +1377,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
@@ -1349,12 +1387,8 @@
       <c r="N25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
@@ -1369,22 +1403,18 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="13"/>
+      <c r="L26" s="17"/>
       <c r="M26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -1397,10 +1427,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
@@ -1409,15 +1439,18 @@
       <c r="N27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I14:J20"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K14:L20"/>
+    <mergeCell ref="K22:L23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:C5"/>
@@ -1427,15 +1460,10 @@
     <mergeCell ref="I5:J11"/>
     <mergeCell ref="K5:L11"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I14:J20"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K14:L20"/>
-    <mergeCell ref="K22:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Ke_hoach_do_an.xlsx
+++ b/Ke_hoach_do_an.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Son Phan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D476DF0-DDB4-4B5A-AA4E-83F6EA38411E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD56301-714E-48BB-ADA1-9C2DB08108D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{34117C9A-1866-4CF7-8596-432888150663}"/>
   </bookViews>
@@ -315,12 +315,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,16 +334,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -399,7 +399,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1026"/>
+                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5E2B5-C013-4F07-A348-84BFF0506DB3}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,84 +755,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
@@ -843,11 +843,11 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,14 +855,14 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="3">
         <v>43110</v>
       </c>
@@ -887,10 +887,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="3">
         <v>43110</v>
       </c>
@@ -915,10 +915,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="4">
         <v>43110</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="3">
         <v>43230</v>
       </c>
@@ -971,10 +971,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="3">
         <v>43230</v>
       </c>
@@ -999,10 +999,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="3">
         <v>43230</v>
       </c>
@@ -1027,10 +1027,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="3">
         <v>43230</v>
       </c>
@@ -1093,14 +1093,14 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="3">
         <v>43353</v>
       </c>
@@ -1125,10 +1125,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="3">
         <v>43353</v>
       </c>
@@ -1153,10 +1153,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="3">
         <v>43353</v>
       </c>
@@ -1181,10 +1181,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="3">
         <v>43444</v>
       </c>
@@ -1209,10 +1209,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="3">
         <v>43444</v>
       </c>
@@ -1235,10 +1235,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="3">
         <v>43444</v>
       </c>
@@ -1261,10 +1261,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1303,18 +1303,22 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="3">
+        <v>43414</v>
+      </c>
+      <c r="P22" s="3">
+        <v>43414</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -1329,16 +1333,20 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="O23" s="3">
+        <v>43414</v>
+      </c>
+      <c r="P23" s="3">
+        <v>43414</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -1351,10 +1359,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
@@ -1377,8 +1385,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
@@ -1403,10 +1411,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1427,10 +1435,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
@@ -1444,13 +1452,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I14:J20"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K14:L20"/>
-    <mergeCell ref="K22:L23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:C5"/>
@@ -1460,6 +1461,13 @@
     <mergeCell ref="I5:J11"/>
     <mergeCell ref="K5:L11"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I14:J20"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K14:L20"/>
+    <mergeCell ref="K22:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
